--- a/簡單形成.xlsx
+++ b/簡單形成.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="98">
   <si>
     <t>主題</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,6 +391,105 @@
   <si>
     <t>肉球森林</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木柵動物園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木柵動物園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貓空品茗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貓空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貓懶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水一日遊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水</t>
+  </si>
+  <si>
+    <t>夜景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屋頂上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北海岸一日遊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萬里翡翠灣SUP立式划槳體驗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://fullfenblog.tw/2016-12-30-268/#%E2%9D%A4_%E5%8F%B0%E5%8C%97%E7%B4%84%E6%9C%83%E6%99%AF%E9%BB%9E</t>
+  </si>
+  <si>
+    <t>夜市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劍潭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士林夜市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食來運轉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漁人碼頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mimihan.tw/tamsui/</t>
+  </si>
+  <si>
+    <t>台電大樓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>師大夜市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大湖公園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mimihan.tw/taipei-travel/</t>
+  </si>
+  <si>
+    <t>https://candicecity.com/38950/</t>
   </si>
 </sst>
 </file>
@@ -729,17 +828,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="70.85546875" bestFit="1" customWidth="1"/>
@@ -987,7 +1086,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1001,7 +1100,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1015,7 +1114,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1027,6 +1126,119 @@
       </c>
       <c r="D19" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
